--- a/RNAseq/Data/PC2genestatsWT.xlsx
+++ b/RNAseq/Data/PC2genestatsWT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilbar\Documents\MATLAB\DreammistPaper\RNAseq\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A16D56-4C5B-451B-B1EC-BA21F42B0300}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B31D84EF-5ED3-4674-B8EB-09BC1BB7E5A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12610" windowHeight="7430" xr2:uid="{937D1CE9-690B-4661-8ACC-68EA47A9A284}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="904">
   <si>
     <t>GeneT</t>
   </si>
@@ -2736,6 +2736,9 @@
   </si>
   <si>
     <t>zgc:171727</t>
+  </si>
+  <si>
+    <t>log2direction</t>
   </si>
 </sst>
 </file>
@@ -3087,7 +3090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80B72C5-3EBC-4BCB-9AB3-A9853A63DDF0}">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:E453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3096,9 +3099,10 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3111,8 +3115,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -3125,8 +3132,11 @@
       <c r="D2">
         <v>3.159748402838614</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0.82833751925465104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3139,8 +3149,11 @@
       <c r="D3">
         <v>6.9670783149146693</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>-0.56922466495802804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3153,8 +3166,11 @@
       <c r="D4">
         <v>6.8038155937063243</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>0.52560803588097904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -3167,8 +3183,11 @@
       <c r="D5">
         <v>3.0109348399204339</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>-0.810482324725604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -3181,8 +3200,11 @@
       <c r="D6">
         <v>3.8250163693726109</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>0.64300357794099905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -3195,8 +3217,11 @@
       <c r="D7">
         <v>2.9393434055636618</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>0.73858879404732602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -3209,8 +3234,11 @@
       <c r="D8">
         <v>4.3243097907149455</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>-0.722178445827102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -3223,8 +3251,11 @@
       <c r="D9">
         <v>4.7959407755627952</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>-0.62746083153870702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3237,8 +3268,11 @@
       <c r="D10">
         <v>5.2004122026230046</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>0.61567004640732303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -3251,8 +3285,11 @@
       <c r="D11">
         <v>3.090635699603614</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>1.5004801011190501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3265,8 +3302,11 @@
       <c r="D12">
         <v>6.0853909713078185</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>-0.44850148031672898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -3279,8 +3319,11 @@
       <c r="D13">
         <v>3.4409968967839482</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>-0.73873813139864197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -3293,8 +3336,11 @@
       <c r="D14">
         <v>3.9069783974549681</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>-0.64715496951531204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -3307,8 +3353,11 @@
       <c r="D15">
         <v>2.9727342220373045</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>-0.61993201225594496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3321,8 +3370,11 @@
       <c r="D16">
         <v>5.043490350664424</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>-0.77430247384663997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3335,8 +3387,11 @@
       <c r="D17">
         <v>6.1872354870252098</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>-0.37551083676491498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -3349,8 +3404,11 @@
       <c r="D18">
         <v>4.2222167846987775</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>-0.97475328508327697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>247</v>
       </c>
@@ -3363,8 +3421,11 @@
       <c r="D19">
         <v>3.2938172803398276</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>-0.79019158651749999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3377,8 +3438,11 @@
       <c r="D20">
         <v>6.6744444686794946</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>-0.55721517610951099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -3391,8 +3455,11 @@
       <c r="D21">
         <v>3.674173425636508</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>0.55292234768565496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>249</v>
       </c>
@@ -3405,8 +3472,11 @@
       <c r="D22">
         <v>4.6253766739628368</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>0.67324171364982799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>250</v>
       </c>
@@ -3419,8 +3489,11 @@
       <c r="D23">
         <v>3.5611970051423181</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>-1.60062710637299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>251</v>
       </c>
@@ -3433,8 +3506,11 @@
       <c r="D24">
         <v>2.9270627254272203</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>-3.1060256974616798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3447,8 +3523,11 @@
       <c r="D25">
         <v>5.4974447069406764</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0.61095584496045496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -3461,8 +3540,11 @@
       <c r="D26">
         <v>5.9056966715077985</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>0.68553437133141404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>252</v>
       </c>
@@ -3475,8 +3557,11 @@
       <c r="D27">
         <v>3.2925626342078576</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>-0.70219946047559301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -3489,8 +3574,11 @@
       <c r="D28">
         <v>3.0873860994596787</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>-0.69035379829597798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>254</v>
       </c>
@@ -3503,8 +3591,11 @@
       <c r="D29">
         <v>3.3179854019469142</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>-0.84203561556977402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -3517,8 +3608,11 @@
       <c r="D30">
         <v>4.4141086705068444</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>-0.69535732916070703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -3531,8 +3625,11 @@
       <c r="D31">
         <v>4.8162313197590363</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>0.75404459671306201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>257</v>
       </c>
@@ -3545,8 +3642,11 @@
       <c r="D32">
         <v>4.7961634971563978</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>-0.850354136504475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>258</v>
       </c>
@@ -3559,8 +3659,11 @@
       <c r="D33">
         <v>3.1834840015805272</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>0.804338985419639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>259</v>
       </c>
@@ -3573,8 +3676,11 @@
       <c r="D34">
         <v>4.6228098758665483</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>-0.71157877901116096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -3587,8 +3693,11 @@
       <c r="D35">
         <v>3.8785576044666055</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>-0.98557737550943403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3601,8 +3710,11 @@
       <c r="D36">
         <v>5.4989028251180221</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>0.55068412353171603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>261</v>
       </c>
@@ -3615,8 +3727,11 @@
       <c r="D37">
         <v>2.9790890038939217</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>1.1816702449044501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>262</v>
       </c>
@@ -3629,8 +3744,11 @@
       <c r="D38">
         <v>3.8700156480749235</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>0.69102549657579704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -3643,8 +3761,11 @@
       <c r="D39">
         <v>3.9651622390686905</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>0.673507953602964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -3657,8 +3778,11 @@
       <c r="D40">
         <v>3.169022601993567</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>0.78436333812812697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>265</v>
       </c>
@@ -3671,8 +3795,11 @@
       <c r="D41">
         <v>4.2874488849956318</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>0.39239986885195299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -3685,8 +3812,11 @@
       <c r="D42">
         <v>6.1191021897985056</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>1.06084066758796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3699,8 +3829,11 @@
       <c r="D43">
         <v>6.5127871568539746</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>0.52767201742491898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>266</v>
       </c>
@@ -3713,8 +3846,11 @@
       <c r="D44">
         <v>4.3818061056110311</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>0.56047881939671396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>267</v>
       </c>
@@ -3727,8 +3863,11 @@
       <c r="D45">
         <v>4.7473339114098581</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>-0.45926222287595198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>268</v>
       </c>
@@ -3741,8 +3880,11 @@
       <c r="D46">
         <v>4.1932542092775815</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>0.70648242415930396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>269</v>
       </c>
@@ -3755,8 +3897,11 @@
       <c r="D47">
         <v>4.8806303857146833</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>0.729886327712297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3769,8 +3914,11 @@
       <c r="D48">
         <v>5.3491364322002788</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>1.1499271447452299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3783,8 +3931,11 @@
       <c r="D49">
         <v>5.629997771769264</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>0.45356570737860302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>270</v>
       </c>
@@ -3797,8 +3948,11 @@
       <c r="D50">
         <v>3.1499479689092582</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>0.54196289800750397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>271</v>
       </c>
@@ -3811,8 +3965,11 @@
       <c r="D51">
         <v>3.4323640052262347</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>0.84472040152887196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>272</v>
       </c>
@@ -3825,8 +3982,11 @@
       <c r="D52">
         <v>3.7177353366706165</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>-1.0834594835157201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>273</v>
       </c>
@@ -3839,8 +3999,11 @@
       <c r="D53">
         <v>3.1817067281915796</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>0.92726651690589201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>274</v>
       </c>
@@ -3853,8 +4016,11 @@
       <c r="D54">
         <v>3.2670471503097787</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>0.32843362562223499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>275</v>
       </c>
@@ -3867,8 +4033,11 @@
       <c r="D55">
         <v>3.2285902654309173</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>-0.69707956269849503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>276</v>
       </c>
@@ -3881,8 +4050,11 @@
       <c r="D56">
         <v>4.520949812006112</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>-0.25432522087756498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>277</v>
       </c>
@@ -3895,8 +4067,11 @@
       <c r="D57">
         <v>4.3489909117862817</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>0.76445694453418001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>278</v>
       </c>
@@ -3909,8 +4084,11 @@
       <c r="D58">
         <v>3.0851458477303675</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>-0.57202540683794301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>279</v>
       </c>
@@ -3923,8 +4101,11 @@
       <c r="D59">
         <v>4.7732978989969812</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>1.33457952680362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>280</v>
       </c>
@@ -3937,8 +4118,11 @@
       <c r="D60">
         <v>3.5652481035732522</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>-0.93056386118537604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>281</v>
       </c>
@@ -3951,8 +4135,11 @@
       <c r="D61">
         <v>3.0917999568101759</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>-1.26852407015894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>282</v>
       </c>
@@ -3965,8 +4152,11 @@
       <c r="D62">
         <v>3.536239732774189</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>-1.12509600055767</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>283</v>
       </c>
@@ -3979,8 +4169,11 @@
       <c r="D63">
         <v>4.1270881465060176</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>0.68319464058033597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>284</v>
       </c>
@@ -3993,8 +4186,11 @@
       <c r="D64">
         <v>4.6822441772937218</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>0.82931606382796796</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>285</v>
       </c>
@@ -4007,8 +4203,11 @@
       <c r="D65">
         <v>4.5596264074845134</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>0.52481199122891697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>286</v>
       </c>
@@ -4021,8 +4220,11 @@
       <c r="D66">
         <v>3.985597906115677</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>0.81599268799802105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>287</v>
       </c>
@@ -4035,8 +4237,11 @@
       <c r="D67">
         <v>4.2993073461411004</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>0.52224588060104205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -4049,8 +4254,11 @@
       <c r="D68">
         <v>3.8512809784556752</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>-0.39656230476020299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>289</v>
       </c>
@@ -4063,8 +4271,11 @@
       <c r="D69">
         <v>4.8192257296455336</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>0.64754767983789296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>290</v>
       </c>
@@ -4077,8 +4288,11 @@
       <c r="D70">
         <v>3.9681021457124706</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>-0.30591332994966502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -4091,8 +4305,11 @@
       <c r="D71">
         <v>3.6070110596924745</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>-1.1693187418281299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>292</v>
       </c>
@@ -4105,8 +4322,11 @@
       <c r="D72">
         <v>3.9054126908744244</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>0.71273244155759397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>293</v>
       </c>
@@ -4119,8 +4339,11 @@
       <c r="D73">
         <v>4.4224429579746252</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>0.82656525080026499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>294</v>
       </c>
@@ -4133,8 +4356,11 @@
       <c r="D74">
         <v>3.7054602969632344</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>-1.4993344952440899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>295</v>
       </c>
@@ -4147,8 +4373,11 @@
       <c r="D75">
         <v>3.880018837994343</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>0.76309674876794298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>296</v>
       </c>
@@ -4161,8 +4390,11 @@
       <c r="D76">
         <v>3.6127692070265764</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>0.51491445296413596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -4175,8 +4407,11 @@
       <c r="D77">
         <v>5.5222172917180306</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>0.797781568230432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>297</v>
       </c>
@@ -4189,8 +4424,11 @@
       <c r="D78">
         <v>4.4420763324573889</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>-0.61705815637000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -4203,8 +4441,11 @@
       <c r="D79">
         <v>6.4191111427369343</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>0.462805600249317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -4217,8 +4458,11 @@
       <c r="D80">
         <v>6.222232318656399</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>0.73914896783512396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>298</v>
       </c>
@@ -4231,8 +4475,11 @@
       <c r="D81">
         <v>3.0577738154806773</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>0.66769610369029897</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>299</v>
       </c>
@@ -4245,8 +4492,11 @@
       <c r="D82">
         <v>3.8235647910612083</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>0.70819987171834398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>300</v>
       </c>
@@ -4259,8 +4509,11 @@
       <c r="D83">
         <v>3.8502692227443913</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>-1.0754815188075999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>301</v>
       </c>
@@ -4273,8 +4526,11 @@
       <c r="D84">
         <v>3.6940814423695429</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>-0.61999826463294005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>67</v>
       </c>
@@ -4287,8 +4543,11 @@
       <c r="D85">
         <v>5.7877711014694766</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>-0.65391976931938101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>302</v>
       </c>
@@ -4301,8 +4560,11 @@
       <c r="D86">
         <v>2.948750458379358</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>2.1095262236708798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>303</v>
       </c>
@@ -4315,8 +4577,11 @@
       <c r="D87">
         <v>3.1574085593095251</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>0.34608539597681998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>304</v>
       </c>
@@ -4329,8 +4594,11 @@
       <c r="D88">
         <v>3.5885145691613141</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>-0.77425302476546298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>305</v>
       </c>
@@ -4343,8 +4611,11 @@
       <c r="D89">
         <v>3.9759084859614027</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>0.70648807626727805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>68</v>
       </c>
@@ -4357,8 +4628,11 @@
       <c r="D90">
         <v>5.8043329358838918</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>-0.87280472802240305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>306</v>
       </c>
@@ -4371,8 +4645,11 @@
       <c r="D91">
         <v>3.1767236231226597</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>-1.05560610279484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>307</v>
       </c>
@@ -4385,8 +4662,11 @@
       <c r="D92">
         <v>2.9658930668375465</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>0.55235924509460099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>308</v>
       </c>
@@ -4399,8 +4679,11 @@
       <c r="D93">
         <v>2.9769720131103519</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>0.96953581612039297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -4413,8 +4696,11 @@
       <c r="D94">
         <v>5.5185845262531972</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>-0.55197881354363298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>309</v>
       </c>
@@ -4427,8 +4713,11 @@
       <c r="D95">
         <v>4.1620697929132167</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>0.74909844300374495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>310</v>
       </c>
@@ -4441,8 +4730,11 @@
       <c r="D96">
         <v>4.0197802099410458</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>-0.88775083225833495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>311</v>
       </c>
@@ -4455,8 +4747,11 @@
       <c r="D97">
         <v>3.0216793658284495</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>0.79904375006543304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -4469,8 +4764,11 @@
       <c r="D98">
         <v>5.4457770583589236</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>-0.66279935264692302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>312</v>
       </c>
@@ -4483,8 +4781,11 @@
       <c r="D99">
         <v>4.0440299680655976</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>0.77450363443755099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>313</v>
       </c>
@@ -4497,8 +4798,11 @@
       <c r="D100">
         <v>4.6898910563732921</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>0.47595253394082299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>314</v>
       </c>
@@ -4511,8 +4815,11 @@
       <c r="D101">
         <v>3.5834694483722265</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>0.40010655681910401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>315</v>
       </c>
@@ -4525,8 +4832,11 @@
       <c r="D102">
         <v>3.4121742662317716</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>-1.64743495647407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>316</v>
       </c>
@@ -4539,8 +4849,11 @@
       <c r="D103">
         <v>2.916424879482856</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>-1.4841838135875001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>317</v>
       </c>
@@ -4553,8 +4866,11 @@
       <c r="D104">
         <v>2.9627372517469532</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>0.62053133035630603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>318</v>
       </c>
@@ -4567,8 +4883,11 @@
       <c r="D105">
         <v>3.3288901613621831</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>-0.92377331239674099</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>319</v>
       </c>
@@ -4581,8 +4900,11 @@
       <c r="D106">
         <v>4.4449591836443307</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>-1.1130063592783701</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -4595,8 +4917,11 @@
       <c r="D107">
         <v>4.2232846868806568</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>-0.85998054507914501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>321</v>
       </c>
@@ -4609,8 +4934,11 @@
       <c r="D108">
         <v>4.1976665084206211</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>-1.1529863423475699</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>322</v>
       </c>
@@ -4623,8 +4951,11 @@
       <c r="D109">
         <v>3.658961708821078</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>0.53937872153113098</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>323</v>
       </c>
@@ -4637,8 +4968,11 @@
       <c r="D110">
         <v>4.1319775561285219</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>0.61677226150810704</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>324</v>
       </c>
@@ -4651,8 +4985,11 @@
       <c r="D111">
         <v>3.274949951933019</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>-0.47695126383424002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>325</v>
       </c>
@@ -4665,8 +5002,11 @@
       <c r="D112">
         <v>3.2228356223784904</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>0.65255366032811202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>326</v>
       </c>
@@ -4679,8 +5019,11 @@
       <c r="D113">
         <v>2.9353307442417527</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>1.02647968425297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>327</v>
       </c>
@@ -4693,8 +5036,11 @@
       <c r="D114">
         <v>3.0399209062524251</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>-0.32699668748024202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>328</v>
       </c>
@@ -4707,8 +5053,11 @@
       <c r="D115">
         <v>4.1887662720720575</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>-0.89435032201646003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>329</v>
       </c>
@@ -4721,8 +5070,11 @@
       <c r="D116">
         <v>3.1147416763947926</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>-0.74944458238358203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>330</v>
       </c>
@@ -4735,8 +5087,11 @@
       <c r="D117">
         <v>4.3464908795863035</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>-0.59901985043294503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>331</v>
       </c>
@@ -4749,8 +5104,11 @@
       <c r="D118">
         <v>3.7106867001866055</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>-1.5737125148627999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>71</v>
       </c>
@@ -4763,8 +5121,11 @@
       <c r="D119">
         <v>5.17247009911683</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>0.45921074206082402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>332</v>
       </c>
@@ -4777,8 +5138,11 @@
       <c r="D120">
         <v>3.287557264096566</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>-0.946784169817108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>333</v>
       </c>
@@ -4791,8 +5155,11 @@
       <c r="D121">
         <v>4.4084735538937707</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>0.52870523633032196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>334</v>
       </c>
@@ -4805,8 +5172,11 @@
       <c r="D122">
         <v>3.0694596545917947</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>-0.65946481500333698</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>72</v>
       </c>
@@ -4819,8 +5189,11 @@
       <c r="D123">
         <v>5.4128083920401604</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>0.51709580744248596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>335</v>
       </c>
@@ -4833,8 +5206,11 @@
       <c r="D124">
         <v>4.549781250487281</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>0.87172701520247997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>336</v>
       </c>
@@ -4847,8 +5223,11 @@
       <c r="D125">
         <v>4.102456300969977</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>0.34704942727938998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>337</v>
       </c>
@@ -4861,8 +5240,11 @@
       <c r="D126">
         <v>3.0325309971708392</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>-0.48735262255699102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>338</v>
       </c>
@@ -4875,8 +5257,11 @@
       <c r="D127">
         <v>3.692819978592337</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>-0.74748567009991196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>339</v>
       </c>
@@ -4889,8 +5274,11 @@
       <c r="D128">
         <v>2.9281369405822302</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>-0.63031964786424599</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>73</v>
       </c>
@@ -4903,8 +5291,11 @@
       <c r="D129">
         <v>5.214405209844081</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>-0.79491038540584302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>340</v>
       </c>
@@ -4917,8 +5308,11 @@
       <c r="D130">
         <v>4.0895881074164855</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>0.49332796611704099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>341</v>
       </c>
@@ -4931,8 +5325,11 @@
       <c r="D131">
         <v>3.836780700120304</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>-0.39112351869742601</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>342</v>
       </c>
@@ -4945,8 +5342,11 @@
       <c r="D132">
         <v>4.213773269475972</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>-0.68665140601994901</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>74</v>
       </c>
@@ -4959,8 +5359,11 @@
       <c r="D133">
         <v>6.3462762232930148</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>0.72087257931294002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>343</v>
       </c>
@@ -4973,8 +5376,11 @@
       <c r="D134">
         <v>2.9976224811332317</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>0.795469526363352</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>344</v>
       </c>
@@ -4987,8 +5393,11 @@
       <c r="D135">
         <v>3.1653725429590871</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <v>-0.59567589023238399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>345</v>
       </c>
@@ -5001,8 +5410,11 @@
       <c r="D136">
         <v>3.6554268302998674</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <v>-0.90675264438557801</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>346</v>
       </c>
@@ -5015,8 +5427,11 @@
       <c r="D137">
         <v>4.2713538433864517</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <v>-0.65843216698245099</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>347</v>
       </c>
@@ -5029,8 +5444,11 @@
       <c r="D138">
         <v>3.5321285704243013</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <v>0.54820788331395698</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>348</v>
       </c>
@@ -5043,8 +5461,11 @@
       <c r="D139">
         <v>4.0337680422376474</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>0.58295989707032403</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>349</v>
       </c>
@@ -5057,8 +5478,11 @@
       <c r="D140">
         <v>3.4520477861597296</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <v>1.4243467638378899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>350</v>
       </c>
@@ -5071,8 +5495,11 @@
       <c r="D141">
         <v>3.2618075310280346</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <v>-0.40039051031329098</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>351</v>
       </c>
@@ -5085,8 +5512,11 @@
       <c r="D142">
         <v>4.4143958862958996</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <v>0.78574871688348502</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>352</v>
       </c>
@@ -5099,8 +5529,11 @@
       <c r="D143">
         <v>4.216861481836216</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <v>0.62400762734110105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>353</v>
       </c>
@@ -5113,8 +5546,11 @@
       <c r="D144">
         <v>4.231013357207587</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <v>0.72143177412329396</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>75</v>
       </c>
@@ -5127,8 +5563,11 @@
       <c r="D145">
         <v>5.0715950969014427</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <v>0.50621481235010501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>354</v>
       </c>
@@ -5141,8 +5580,11 @@
       <c r="D146">
         <v>4.1360048524442146</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <v>0.48002665673084199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>355</v>
       </c>
@@ -5155,8 +5597,11 @@
       <c r="D147">
         <v>3.0086943117722913</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <v>1.20636638338451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>76</v>
       </c>
@@ -5169,8 +5614,11 @@
       <c r="D148">
         <v>5.6201660059264542</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <v>-0.757004431182701</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -5183,8 +5631,11 @@
       <c r="D149">
         <v>2.9327959447002443</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>0.35941994419040202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>357</v>
       </c>
@@ -5197,8 +5648,11 @@
       <c r="D150">
         <v>3.4457531373873875</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>0.54579091608780095</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>358</v>
       </c>
@@ -5211,8 +5665,11 @@
       <c r="D151">
         <v>3.0888201551749157</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>-0.65211210371344197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>359</v>
       </c>
@@ -5225,8 +5682,11 @@
       <c r="D152">
         <v>3.0946858266376331</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>-0.32919408478150702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>360</v>
       </c>
@@ -5239,8 +5699,11 @@
       <c r="D153">
         <v>4.5798165190223807</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>-0.48059117492724901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>361</v>
       </c>
@@ -5253,8 +5716,11 @@
       <c r="D154">
         <v>3.5175753331533466</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>1.5742578269622101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -5267,8 +5733,11 @@
       <c r="D155">
         <v>5.3556867656773175</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>-0.644388670871747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>78</v>
       </c>
@@ -5281,8 +5750,11 @@
       <c r="D156">
         <v>5.5639613873381739</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>0.56469055601209395</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -5295,8 +5767,11 @@
       <c r="D157">
         <v>5.8999824348243104</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>-0.57610114372134202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>362</v>
       </c>
@@ -5309,8 +5784,11 @@
       <c r="D158">
         <v>3.3580587115001714</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>-0.59409490648693797</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>363</v>
       </c>
@@ -5323,8 +5801,11 @@
       <c r="D159">
         <v>4.315651032077648</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>-0.76332178794320305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>364</v>
       </c>
@@ -5337,8 +5818,11 @@
       <c r="D160">
         <v>3.1394547245304896</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <v>0.28556435716952</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>365</v>
       </c>
@@ -5351,8 +5835,11 @@
       <c r="D161">
         <v>4.8640093412977361</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <v>0.98299988317521703</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>366</v>
       </c>
@@ -5365,8 +5852,11 @@
       <c r="D162">
         <v>4.5574989698868089</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <v>0.96396587226080999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -5379,8 +5869,11 @@
       <c r="D163">
         <v>6.5164216408738502</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <v>-0.52230456226341504</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>367</v>
       </c>
@@ -5393,8 +5886,11 @@
       <c r="D164">
         <v>3.0915325958591162</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <v>0.68829580805606005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>368</v>
       </c>
@@ -5407,8 +5903,11 @@
       <c r="D165">
         <v>3.5827022984968457</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E165">
+        <v>0.497703415747976</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>369</v>
       </c>
@@ -5421,8 +5920,11 @@
       <c r="D166">
         <v>2.9387230696536322</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E166">
+        <v>-0.93287890335409196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>80</v>
       </c>
@@ -5435,8 +5937,11 @@
       <c r="D167">
         <v>6.459848669476278</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E167">
+        <v>1.0021349928836101</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>370</v>
       </c>
@@ -5449,8 +5954,11 @@
       <c r="D168">
         <v>4.9470910912855661</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E168">
+        <v>0.96359485086916896</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>371</v>
       </c>
@@ -5463,8 +5971,11 @@
       <c r="D169">
         <v>4.1107825058651537</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E169">
+        <v>-0.49562203356578499</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>372</v>
       </c>
@@ -5477,8 +5988,11 @@
       <c r="D170">
         <v>3.3904648723218491</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E170">
+        <v>0.46392626116507502</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -5491,8 +6005,11 @@
       <c r="D171">
         <v>4.0757318211316624</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E171">
+        <v>0.712093351277998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>81</v>
       </c>
@@ -5505,8 +6022,11 @@
       <c r="D172">
         <v>5.9697803298204812</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E172">
+        <v>-0.39441805770043897</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>374</v>
       </c>
@@ -5519,8 +6039,11 @@
       <c r="D173">
         <v>3.5081993921178745</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E173">
+        <v>-0.67373843743264605</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>375</v>
       </c>
@@ -5533,8 +6056,11 @@
       <c r="D174">
         <v>4.938089775350619</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E174">
+        <v>0.35323277420390897</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>376</v>
       </c>
@@ -5547,8 +6073,11 @@
       <c r="D175">
         <v>4.2800205830476967</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E175">
+        <v>0.74303357894731403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>377</v>
       </c>
@@ -5561,8 +6090,11 @@
       <c r="D176">
         <v>3.4014790616812216</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E176">
+        <v>-0.99729422083914199</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>378</v>
       </c>
@@ -5575,8 +6107,11 @@
       <c r="D177">
         <v>3.9869921183653121</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E177">
+        <v>-0.65782614853419397</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>379</v>
       </c>
@@ -5589,8 +6124,11 @@
       <c r="D178">
         <v>4.5408942374945127</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E178">
+        <v>1.16439364759674</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>380</v>
       </c>
@@ -5603,8 +6141,11 @@
       <c r="D179">
         <v>3.6909711117638788</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E179">
+        <v>-0.630842532586678</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>381</v>
       </c>
@@ -5617,8 +6158,11 @@
       <c r="D180">
         <v>3.236623608442438</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E180">
+        <v>0.71826045766729896</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>382</v>
       </c>
@@ -5631,8 +6175,11 @@
       <c r="D181">
         <v>3.5066499754943448</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E181">
+        <v>-0.93785920861662997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>383</v>
       </c>
@@ -5645,8 +6192,11 @@
       <c r="D182">
         <v>4.7536703070751205</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E182">
+        <v>-0.71025351153300897</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>384</v>
       </c>
@@ -5659,8 +6209,11 @@
       <c r="D183">
         <v>3.4094365344956881</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E183">
+        <v>-0.48416708422055599</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>385</v>
       </c>
@@ -5673,8 +6226,11 @@
       <c r="D184">
         <v>3.2471916080478036</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E184">
+        <v>0.82911955554600203</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>386</v>
       </c>
@@ -5687,8 +6243,11 @@
       <c r="D185">
         <v>3.0202455900860992</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E185">
+        <v>2.0160511390038498</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>387</v>
       </c>
@@ -5701,8 +6260,11 @@
       <c r="D186">
         <v>3.1922417019597198</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E186">
+        <v>1.2113332942027299</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>388</v>
       </c>
@@ -5715,8 +6277,11 @@
       <c r="D187">
         <v>2.9150146304580682</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E187">
+        <v>-0.81947419745709504</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>82</v>
       </c>
@@ -5729,8 +6294,11 @@
       <c r="D188">
         <v>5.0135053977546455</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E188">
+        <v>-0.47317681624090602</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>389</v>
       </c>
@@ -5743,8 +6311,11 @@
       <c r="D189">
         <v>4.5426570056485644</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E189">
+        <v>1.5365010257042899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>390</v>
       </c>
@@ -5757,8 +6328,11 @@
       <c r="D190">
         <v>4.8879380087778443</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E190">
+        <v>0.60118836484438498</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>391</v>
       </c>
@@ -5771,8 +6345,11 @@
       <c r="D191">
         <v>2.8948154746252333</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E191">
+        <v>0.43499667181004897</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>83</v>
       </c>
@@ -5785,8 +6362,11 @@
       <c r="D192">
         <v>6.0971547339034862</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <v>0.486148125620192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>392</v>
       </c>
@@ -5799,8 +6379,11 @@
       <c r="D193">
         <v>4.5817186196082087</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <v>0.80700465218505701</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>84</v>
       </c>
@@ -5813,8 +6396,11 @@
       <c r="D194">
         <v>5.3835521672213744</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E194">
+        <v>0.743691069084226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>393</v>
       </c>
@@ -5827,8 +6413,11 @@
       <c r="D195">
         <v>3.8760553563972016</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E195">
+        <v>2.2826188183671601</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>85</v>
       </c>
@@ -5841,8 +6430,11 @@
       <c r="D196">
         <v>5.7484410899866667</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E196">
+        <v>0.57604715531760298</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>394</v>
       </c>
@@ -5855,8 +6447,11 @@
       <c r="D197">
         <v>2.9905180539326373</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E197">
+        <v>2.0089005750712001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -5869,8 +6464,11 @@
       <c r="D198">
         <v>3.7505323848638281</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E198">
+        <v>-0.45163625930154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>396</v>
       </c>
@@ -5883,8 +6481,11 @@
       <c r="D199">
         <v>3.979373437409238</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E199">
+        <v>5.1629608511164404</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>86</v>
       </c>
@@ -5897,8 +6498,11 @@
       <c r="D200">
         <v>6.1305911873401024</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E200">
+        <v>-0.830780712840271</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>397</v>
       </c>
@@ -5911,8 +6515,11 @@
       <c r="D201">
         <v>3.9991483184402137</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E201">
+        <v>1.2968899601999799</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>398</v>
       </c>
@@ -5925,8 +6532,11 @@
       <c r="D202">
         <v>3.4011574695446027</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E202">
+        <v>-0.47891748169215498</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>399</v>
       </c>
@@ -5939,8 +6549,11 @@
       <c r="D203">
         <v>3.7590674230084153</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E203">
+        <v>0.70811091883525301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>400</v>
       </c>
@@ -5953,8 +6566,11 @@
       <c r="D204">
         <v>4.5457825411963482</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E204">
+        <v>-0.63270217745570101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>87</v>
       </c>
@@ -5967,8 +6583,11 @@
       <c r="D205">
         <v>5.3765243251056765</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E205">
+        <v>1.0498501942849101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>401</v>
       </c>
@@ -5981,8 +6600,11 @@
       <c r="D206">
         <v>4.2621675207164467</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <v>1.08104197177631</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>402</v>
       </c>
@@ -5995,8 +6617,11 @@
       <c r="D207">
         <v>3.9806997508408077</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <v>2.1904054867450902</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>88</v>
       </c>
@@ -6009,8 +6634,11 @@
       <c r="D208">
         <v>5.8136232822420242</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <v>-0.75814741259771001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>403</v>
       </c>
@@ -6023,8 +6651,11 @@
       <c r="D209">
         <v>4.3998418331193108</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>0.85538604308715904</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -6037,8 +6668,11 @@
       <c r="D210">
         <v>5.1532395548752055</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <v>-0.640208581648951</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>404</v>
       </c>
@@ -6051,8 +6685,11 @@
       <c r="D211">
         <v>3.711774934622154</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E211">
+        <v>0.66019944576467804</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>405</v>
       </c>
@@ -6065,8 +6702,11 @@
       <c r="D212">
         <v>3.7169213456379429</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <v>-0.62006865718784299</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>406</v>
       </c>
@@ -6079,8 +6719,11 @@
       <c r="D213">
         <v>3.2151602935059391</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <v>-0.32041849870744998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>90</v>
       </c>
@@ -6093,8 +6736,11 @@
       <c r="D214">
         <v>5.262407874223344</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <v>-0.99234033764280405</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>407</v>
       </c>
@@ -6107,8 +6753,11 @@
       <c r="D215">
         <v>2.8926865176210623</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E215">
+        <v>0.64048570527448201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -6121,8 +6770,11 @@
       <c r="D216">
         <v>4.5181009222172523</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E216">
+        <v>1.2945548945612499</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>409</v>
       </c>
@@ -6135,8 +6787,11 @@
       <c r="D217">
         <v>3.3764594574873392</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E217">
+        <v>1.04782244163074</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>410</v>
       </c>
@@ -6149,8 +6804,11 @@
       <c r="D218">
         <v>3.0323978835414964</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E218">
+        <v>0.80492144628265405</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>411</v>
       </c>
@@ -6163,8 +6821,11 @@
       <c r="D219">
         <v>3.464751904135567</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E219">
+        <v>-1.8357697494693599</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>412</v>
       </c>
@@ -6177,8 +6838,11 @@
       <c r="D220">
         <v>4.571662492162436</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E220">
+        <v>0.70255036040128804</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -6191,8 +6855,11 @@
       <c r="D221">
         <v>6.360813987748819</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E221">
+        <v>0.52164083000287798</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -6205,8 +6872,11 @@
       <c r="D222">
         <v>3.1095267454785764</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E222">
+        <v>0.51243716128200001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>414</v>
       </c>
@@ -6219,8 +6889,11 @@
       <c r="D223">
         <v>4.7318625566473074</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E223">
+        <v>0.66344163620295105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>92</v>
       </c>
@@ -6233,8 +6906,11 @@
       <c r="D224">
         <v>5.1502368014125066</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E224">
+        <v>-0.91812631045593396</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>415</v>
       </c>
@@ -6247,8 +6923,11 @@
       <c r="D225">
         <v>4.1566590457481034</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E225">
+        <v>1.0917599868854999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>416</v>
       </c>
@@ -6261,8 +6940,11 @@
       <c r="D226">
         <v>3.8868818762754751</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E226">
+        <v>-0.76198074148385497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>417</v>
       </c>
@@ -6275,8 +6957,11 @@
       <c r="D227">
         <v>3.5149284426169993</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E227">
+        <v>0.87398192989299905</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>418</v>
       </c>
@@ -6289,8 +6974,11 @@
       <c r="D228">
         <v>3.5885404948007253</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E228">
+        <v>0.88941326176526003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>419</v>
       </c>
@@ -6303,8 +6991,11 @@
       <c r="D229">
         <v>3.1908514977101428</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E229">
+        <v>0.78263678309893903</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>420</v>
       </c>
@@ -6317,8 +7008,11 @@
       <c r="D230">
         <v>3.1241306343320181</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E230">
+        <v>0.840325705098102</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>421</v>
       </c>
@@ -6331,8 +7025,11 @@
       <c r="D231">
         <v>3.9939988947366993</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E231">
+        <v>-0.43357087526367599</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>422</v>
       </c>
@@ -6345,8 +7042,11 @@
       <c r="D232">
         <v>3.1818625042454354</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E232">
+        <v>-0.69208178370750595</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>423</v>
       </c>
@@ -6359,8 +7059,11 @@
       <c r="D233">
         <v>3.0450436172464159</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E233">
+        <v>-0.66179802588410697</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>93</v>
       </c>
@@ -6373,8 +7076,11 @@
       <c r="D234">
         <v>5.9747530878545891</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E234">
+        <v>-0.50352723808536604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -6387,8 +7093,11 @@
       <c r="D235">
         <v>7.128072727165514</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E235">
+        <v>1.07815024458249</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>94</v>
       </c>
@@ -6401,8 +7110,11 @@
       <c r="D236">
         <v>6.2826101146084996</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E236">
+        <v>-0.64279245843364696</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>424</v>
       </c>
@@ -6415,8 +7127,11 @@
       <c r="D237">
         <v>3.3530428275030371</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E237">
+        <v>1.55531809124797</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>425</v>
       </c>
@@ -6429,8 +7144,11 @@
       <c r="D238">
         <v>3.8656184724939346</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E238">
+        <v>-0.72003969314551097</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>426</v>
       </c>
@@ -6443,8 +7161,11 @@
       <c r="D239">
         <v>4.8620303305089543</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E239">
+        <v>2.2170714873940298</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>427</v>
       </c>
@@ -6457,8 +7178,11 @@
       <c r="D240">
         <v>3.3951427685543072</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E240">
+        <v>-1.3636559256598799</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>428</v>
       </c>
@@ -6471,8 +7195,11 @@
       <c r="D241">
         <v>3.4934973553770754</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E241">
+        <v>-0.78455024935500794</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>429</v>
       </c>
@@ -6485,8 +7212,11 @@
       <c r="D242">
         <v>3.7456636027535271</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E242">
+        <v>-0.67517534293225501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>430</v>
       </c>
@@ -6499,8 +7229,11 @@
       <c r="D243">
         <v>3.5284218127193867</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E243">
+        <v>0.34959882082347998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>431</v>
       </c>
@@ -6513,8 +7246,11 @@
       <c r="D244">
         <v>3.3867424337974064</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E244">
+        <v>-0.54240394604946096</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>432</v>
       </c>
@@ -6527,8 +7263,11 @@
       <c r="D245">
         <v>4.0687220967260034</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E245">
+        <v>-0.82970752533477599</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>433</v>
       </c>
@@ -6541,8 +7280,11 @@
       <c r="D246">
         <v>3.5572309694952517</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E246">
+        <v>-0.71456767962831702</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>95</v>
       </c>
@@ -6555,8 +7297,11 @@
       <c r="D247">
         <v>5.8967218269204773</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E247">
+        <v>1.42517407453408</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>96</v>
       </c>
@@ -6569,8 +7314,11 @@
       <c r="D248">
         <v>6.0496758933339319</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E248">
+        <v>-1.30695399779438</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>97</v>
       </c>
@@ -6583,8 +7331,11 @@
       <c r="D249">
         <v>4.9861409405863792</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E249">
+        <v>-0.83505931750444196</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>434</v>
       </c>
@@ -6597,8 +7348,11 @@
       <c r="D250">
         <v>4.0642765684201132</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E250">
+        <v>-1.1831672201776999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>98</v>
       </c>
@@ -6611,8 +7365,11 @@
       <c r="D251">
         <v>6.3196645045531223</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E251">
+        <v>-1.04616699261014</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>99</v>
       </c>
@@ -6625,8 +7382,11 @@
       <c r="D252">
         <v>5.1319089978174999</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E252">
+        <v>1.89453493356852</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>100</v>
       </c>
@@ -6639,8 +7399,11 @@
       <c r="D253">
         <v>5.7588045358328248</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E253">
+        <v>-0.90355093881125503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>435</v>
       </c>
@@ -6653,8 +7416,11 @@
       <c r="D254">
         <v>4.1002360170072709</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E254">
+        <v>0.99627873465473704</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>436</v>
       </c>
@@ -6667,8 +7433,11 @@
       <c r="D255">
         <v>4.7660272855119521</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E255">
+        <v>-0.67981073520820301</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>437</v>
       </c>
@@ -6681,8 +7450,11 @@
       <c r="D256">
         <v>3.67174184038128</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E256">
+        <v>1.28121634736558</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>438</v>
       </c>
@@ -6695,8 +7467,11 @@
       <c r="D257">
         <v>4.3814909130433977</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E257">
+        <v>0.76612483081836602</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>101</v>
       </c>
@@ -6709,8 +7484,11 @@
       <c r="D258">
         <v>5.2324011520608664</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E258">
+        <v>-0.57441626707604698</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>102</v>
       </c>
@@ -6723,8 +7501,11 @@
       <c r="D259">
         <v>4.9897693354496688</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E259">
+        <v>-0.88780429997868104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>439</v>
       </c>
@@ -6737,8 +7518,11 @@
       <c r="D260">
         <v>4.013624299729722</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E260">
+        <v>1.0871710375899</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -6751,8 +7535,11 @@
       <c r="D261">
         <v>7.2005769912216691</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E261">
+        <v>1.16495429081656</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>440</v>
       </c>
@@ -6765,8 +7552,11 @@
       <c r="D262">
         <v>4.0951489196392208</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E262">
+        <v>0.79355149757302901</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>441</v>
       </c>
@@ -6779,8 +7569,11 @@
       <c r="D263">
         <v>4.0257095885345224</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E263">
+        <v>-0.64931748346816198</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>103</v>
       </c>
@@ -6793,8 +7586,11 @@
       <c r="D264">
         <v>5.0092326680346222</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E264">
+        <v>1.1781135975702901</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>442</v>
       </c>
@@ -6807,8 +7603,11 @@
       <c r="D265">
         <v>4.4165144440973778</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E265">
+        <v>-0.76282648262603303</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>443</v>
       </c>
@@ -6821,8 +7620,11 @@
       <c r="D266">
         <v>3.3418945941668858</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E266">
+        <v>1.0030562890236601</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>444</v>
       </c>
@@ -6835,8 +7637,11 @@
       <c r="D267">
         <v>3.1392374956368898</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E267">
+        <v>0.61351665212054296</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>445</v>
       </c>
@@ -6849,8 +7654,11 @@
       <c r="D268">
         <v>4.1937270247292888</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E268">
+        <v>-0.401815230936858</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>104</v>
       </c>
@@ -6863,8 +7671,11 @@
       <c r="D269">
         <v>5.0628234000578569</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E269">
+        <v>1.0624563858918299</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>446</v>
       </c>
@@ -6877,8 +7688,11 @@
       <c r="D270">
         <v>3.1261643287279459</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E270">
+        <v>-0.73854417283246299</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>447</v>
       </c>
@@ -6891,8 +7705,11 @@
       <c r="D271">
         <v>4.2809134952923431</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E271">
+        <v>1.5353058942445901</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>105</v>
       </c>
@@ -6905,8 +7722,11 @@
       <c r="D272">
         <v>5.0975485891499179</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E272">
+        <v>0.76987899700223195</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>448</v>
       </c>
@@ -6919,8 +7739,11 @@
       <c r="D273">
         <v>3.7669994703073497</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E273">
+        <v>-0.88025873059762505</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>449</v>
       </c>
@@ -6933,8 +7756,11 @@
       <c r="D274">
         <v>3.4161915355403383</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E274">
+        <v>-1.12551833389741</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>450</v>
       </c>
@@ -6947,8 +7773,11 @@
       <c r="D275">
         <v>4.6315196526692564</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E275">
+        <v>-1.1675223128739201</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>451</v>
       </c>
@@ -6961,8 +7790,11 @@
       <c r="D276">
         <v>4.4661198817463044</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E276">
+        <v>-0.76988367827704496</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>452</v>
       </c>
@@ -6975,8 +7807,11 @@
       <c r="D277">
         <v>3.6325697351585959</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E277">
+        <v>-0.98191955672236098</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>453</v>
       </c>
@@ -6989,8 +7824,11 @@
       <c r="D278">
         <v>3.0777244665209427</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E278">
+        <v>1.26235872263237</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>454</v>
       </c>
@@ -7003,8 +7841,11 @@
       <c r="D279">
         <v>3.2960751784475844</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E279">
+        <v>-0.90838319201145901</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>106</v>
       </c>
@@ -7017,8 +7858,11 @@
       <c r="D280">
         <v>5.0670354616429645</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E280">
+        <v>0.96973618896499003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>455</v>
       </c>
@@ -7031,8 +7875,11 @@
       <c r="D281">
         <v>4.6303305985712049</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E281">
+        <v>1.0569621346729099</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>456</v>
       </c>
@@ -7045,8 +7892,11 @@
       <c r="D282">
         <v>3.2222056006902822</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E282">
+        <v>1.5264749298204401</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>457</v>
       </c>
@@ -7059,8 +7909,11 @@
       <c r="D283">
         <v>4.5686881394537382</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E283">
+        <v>1.44358529470536</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -7073,8 +7926,11 @@
       <c r="D284">
         <v>6.4877024527991978</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E284">
+        <v>0.80668322753686394</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>458</v>
       </c>
@@ -7087,8 +7943,11 @@
       <c r="D285">
         <v>4.7566978261612025</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E285">
+        <v>2.1155223845288198</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -7101,8 +7960,11 @@
       <c r="D286">
         <v>7.4725498044968308</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E286">
+        <v>0.79457704511189498</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>459</v>
       </c>
@@ -7115,8 +7977,11 @@
       <c r="D287">
         <v>3.8892657240302237</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E287">
+        <v>1.6302330299935299</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>460</v>
       </c>
@@ -7129,8 +7994,11 @@
       <c r="D288">
         <v>4.6027165612973961</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E288">
+        <v>0.74473442843384097</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>461</v>
       </c>
@@ -7143,8 +8011,11 @@
       <c r="D289">
         <v>3.291040387648017</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E289">
+        <v>-0.39207360923072498</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>462</v>
       </c>
@@ -7157,8 +8028,11 @@
       <c r="D290">
         <v>4.2356167977900645</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E290">
+        <v>1.59998193935482</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -7171,8 +8045,11 @@
       <c r="D291">
         <v>7.2048429757236976</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E291">
+        <v>0.96834559666470998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>463</v>
       </c>
@@ -7185,8 +8062,11 @@
       <c r="D292">
         <v>4.1182415041372158</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E292">
+        <v>0.79392697079679198</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>107</v>
       </c>
@@ -7199,8 +8079,11 @@
       <c r="D293">
         <v>5.9653323805431393</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E293">
+        <v>0.75283538100745695</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>108</v>
       </c>
@@ -7213,8 +8096,11 @@
       <c r="D294">
         <v>5.2203503233120365</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E294">
+        <v>1.47459090425614</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>464</v>
       </c>
@@ -7227,8 +8113,11 @@
       <c r="D295">
         <v>3.3716384585252639</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E295">
+        <v>-0.82693857601320597</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>465</v>
       </c>
@@ -7241,8 +8130,11 @@
       <c r="D296">
         <v>4.1705451666342848</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E296">
+        <v>0.78610854868319202</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>466</v>
       </c>
@@ -7255,8 +8147,11 @@
       <c r="D297">
         <v>4.2725832084423603</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E297">
+        <v>1.0983096986098899</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -7269,8 +8164,11 @@
       <c r="D298">
         <v>7.2889590754660176</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E298">
+        <v>0.42598535806906801</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>467</v>
       </c>
@@ -7283,8 +8181,11 @@
       <c r="D299">
         <v>2.9495296525325116</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E299">
+        <v>0.47704932401223199</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>468</v>
       </c>
@@ -7297,8 +8198,11 @@
       <c r="D300">
         <v>4.2273470485890181</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E300">
+        <v>0.87182495221950396</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>469</v>
       </c>
@@ -7311,8 +8215,11 @@
       <c r="D301">
         <v>4.3063664721378982</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E301">
+        <v>2.8153224774366401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>470</v>
       </c>
@@ -7325,8 +8232,11 @@
       <c r="D302">
         <v>2.9456720154951919</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E302">
+        <v>0.55741782105974502</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>109</v>
       </c>
@@ -7339,8 +8249,11 @@
       <c r="D303">
         <v>5.1414871983179822</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E303">
+        <v>0.79150518549465698</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>110</v>
       </c>
@@ -7353,8 +8266,11 @@
       <c r="D304">
         <v>5.7958386339381311</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E304">
+        <v>1.0412238703058601</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>111</v>
       </c>
@@ -7367,8 +8283,11 @@
       <c r="D305">
         <v>5.0985003956562647</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E305">
+        <v>0.63126243476676103</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -7381,8 +8300,11 @@
       <c r="D306">
         <v>6.8365756393977923</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E306">
+        <v>1.0884134417529201</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>112</v>
       </c>
@@ -7395,8 +8317,11 @@
       <c r="D307">
         <v>6.3824402378781517</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E307">
+        <v>0.88121806902845301</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>113</v>
       </c>
@@ -7409,8 +8334,11 @@
       <c r="D308">
         <v>6.1036872877154567</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E308">
+        <v>0.94860880323108399</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>471</v>
       </c>
@@ -7423,8 +8351,11 @@
       <c r="D309">
         <v>4.2436212059379903</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E309">
+        <v>0.86229582862129395</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>472</v>
       </c>
@@ -7437,8 +8368,11 @@
       <c r="D310">
         <v>4.4844987949018229</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E310">
+        <v>0.84610252424199495</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>114</v>
       </c>
@@ -7451,8 +8385,11 @@
       <c r="D311">
         <v>5.1140295337520785</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E311">
+        <v>-0.83155587634788597</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>18</v>
       </c>
@@ -7465,8 +8402,11 @@
       <c r="D312">
         <v>6.7437995144695737</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E312">
+        <v>0.83387066263325205</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>115</v>
       </c>
@@ -7479,8 +8419,11 @@
       <c r="D313">
         <v>5.288740157044475</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E313">
+        <v>1.34623192025409</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>116</v>
       </c>
@@ -7493,8 +8436,11 @@
       <c r="D314">
         <v>5.2566777573316914</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E314">
+        <v>1.4820133281276999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>473</v>
       </c>
@@ -7507,8 +8453,11 @@
       <c r="D315">
         <v>4.0111523055893281</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E315">
+        <v>1.67667938098254</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>117</v>
       </c>
@@ -7521,8 +8470,11 @@
       <c r="D316">
         <v>6.2226220478900673</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E316">
+        <v>0.81298441209802197</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>474</v>
       </c>
@@ -7535,8 +8487,11 @@
       <c r="D317">
         <v>4.1077485593269358</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E317">
+        <v>0.742826622849593</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>118</v>
       </c>
@@ -7549,8 +8504,11 @@
       <c r="D318">
         <v>5.2915236924154092</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E318">
+        <v>1.05570164641391</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>119</v>
       </c>
@@ -7563,8 +8521,11 @@
       <c r="D319">
         <v>4.983352786229168</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E319">
+        <v>0.36674920332259597</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>475</v>
       </c>
@@ -7577,8 +8538,11 @@
       <c r="D320">
         <v>4.7986104639733203</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E320">
+        <v>-0.79308538760736802</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>476</v>
       </c>
@@ -7591,8 +8555,11 @@
       <c r="D321">
         <v>3.1054733522307272</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E321">
+        <v>-0.70289979232077804</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -7605,8 +8572,11 @@
       <c r="D322">
         <v>7.1550590224958306</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E322">
+        <v>0.84990574578498801</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>477</v>
       </c>
@@ -7619,8 +8589,11 @@
       <c r="D323">
         <v>4.3522486437863623</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E323">
+        <v>-0.80709454658238899</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>478</v>
       </c>
@@ -7633,8 +8606,11 @@
       <c r="D324">
         <v>2.9286240727530775</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E324">
+        <v>-2.0817572984866599</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>120</v>
       </c>
@@ -7647,8 +8623,11 @@
       <c r="D325">
         <v>5.844058179661614</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E325">
+        <v>1.3350164185709199</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>479</v>
       </c>
@@ -7661,8 +8640,11 @@
       <c r="D326">
         <v>3.8433678560117031</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E326">
+        <v>1.00500591845502</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>480</v>
       </c>
@@ -7675,8 +8657,11 @@
       <c r="D327">
         <v>3.3171085182006883</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E327">
+        <v>-1.2651473501216699</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>121</v>
       </c>
@@ -7689,8 +8674,11 @@
       <c r="D328">
         <v>5.871266407476849</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E328">
+        <v>-0.70460506418157298</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>481</v>
       </c>
@@ -7703,8 +8691,11 @@
       <c r="D329">
         <v>3.1232909783241696</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E329">
+        <v>2.20903602770092</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>122</v>
       </c>
@@ -7717,8 +8708,11 @@
       <c r="D330">
         <v>5.0118066234859748</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E330">
+        <v>0.87279603313904297</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>482</v>
       </c>
@@ -7731,8 +8725,11 @@
       <c r="D331">
         <v>3.7397069134356045</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E331">
+        <v>0.50227113215062202</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>483</v>
       </c>
@@ -7745,8 +8742,11 @@
       <c r="D332">
         <v>4.0354674584461918</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E332">
+        <v>-0.67242275538207097</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>484</v>
       </c>
@@ -7759,8 +8759,11 @@
       <c r="D333">
         <v>4.3242353701736524</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E333">
+        <v>0.75768182308715104</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>485</v>
       </c>
@@ -7773,8 +8776,11 @@
       <c r="D334">
         <v>3.149901500450266</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E334">
+        <v>-1.0224413151551599</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>20</v>
       </c>
@@ -7787,8 +8793,11 @@
       <c r="D335">
         <v>7.0789957460132751</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E335">
+        <v>1.4437265534736099</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>486</v>
       </c>
@@ -7801,8 +8810,11 @@
       <c r="D336">
         <v>3.4718799625206329</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E336">
+        <v>-0.64559319585456598</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>487</v>
       </c>
@@ -7815,8 +8827,11 @@
       <c r="D337">
         <v>2.9312650917528122</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E337">
+        <v>0.41078440120728799</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>488</v>
       </c>
@@ -7829,8 +8844,11 @@
       <c r="D338">
         <v>3.7511685061548641</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E338">
+        <v>-0.88347770710408902</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>489</v>
       </c>
@@ -7843,8 +8861,11 @@
       <c r="D339">
         <v>3.1164824827035873</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E339">
+        <v>-0.70694401392141204</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>490</v>
       </c>
@@ -7857,8 +8878,11 @@
       <c r="D340">
         <v>4.4846109567905748</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E340">
+        <v>-0.78448000881445701</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>123</v>
       </c>
@@ -7871,8 +8895,11 @@
       <c r="D341">
         <v>5.4066606693038164</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E341">
+        <v>-1.4191886196894901</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>491</v>
       </c>
@@ -7885,8 +8912,11 @@
       <c r="D342">
         <v>3.6715371277890063</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E342">
+        <v>-0.62559523141566098</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>492</v>
       </c>
@@ -7899,8 +8929,11 @@
       <c r="D343">
         <v>4.9690984434524204</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E343">
+        <v>1.56904990940103</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>493</v>
       </c>
@@ -7913,8 +8946,11 @@
       <c r="D344">
         <v>3.0529897495175917</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E344">
+        <v>0.62329886013092495</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>494</v>
       </c>
@@ -7927,8 +8963,11 @@
       <c r="D345">
         <v>3.6785332817615264</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E345">
+        <v>1.0940265371923199</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>124</v>
       </c>
@@ -7941,8 +8980,11 @@
       <c r="D346">
         <v>5.1397976293231942</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E346">
+        <v>0.93844866166820795</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>495</v>
       </c>
@@ -7955,8 +8997,11 @@
       <c r="D347">
         <v>2.9297513495986713</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E347">
+        <v>-0.83685095776778795</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>125</v>
       </c>
@@ -7969,8 +9014,11 @@
       <c r="D348">
         <v>5.7165948790395147</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E348">
+        <v>-0.75357038821202504</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>496</v>
       </c>
@@ -7983,8 +9031,11 @@
       <c r="D349">
         <v>3.9964760307090827</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E349">
+        <v>-0.56433096060431398</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>126</v>
       </c>
@@ -7997,8 +9048,11 @@
       <c r="D350">
         <v>5.2737736529276766</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E350">
+        <v>0.55057119464158999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>497</v>
       </c>
@@ -8011,8 +9065,11 @@
       <c r="D351">
         <v>3.2461628905470858</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E351">
+        <v>0.87952418209960903</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>498</v>
       </c>
@@ -8025,8 +9082,11 @@
       <c r="D352">
         <v>3.0060560824614084</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E352">
+        <v>0.89884889329234796</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>499</v>
       </c>
@@ -8039,8 +9099,11 @@
       <c r="D353">
         <v>3.0249013156213751</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E353">
+        <v>0.84936560609828804</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>500</v>
       </c>
@@ -8053,8 +9116,11 @@
       <c r="D354">
         <v>4.734834727629921</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E354">
+        <v>-0.74280637185332599</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>501</v>
       </c>
@@ -8067,8 +9133,11 @@
       <c r="D355">
         <v>3.5076737357657932</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E355">
+        <v>-0.85009036517393</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>21</v>
       </c>
@@ -8081,8 +9150,11 @@
       <c r="D356">
         <v>7.1778895587083493</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E356">
+        <v>-0.56264634540664105</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>502</v>
       </c>
@@ -8095,8 +9167,11 @@
       <c r="D357">
         <v>3.6373591272473198</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E357">
+        <v>-0.86964230207565096</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>503</v>
       </c>
@@ -8109,8 +9184,11 @@
       <c r="D358">
         <v>2.9426808640442581</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E358">
+        <v>0.52852215017962301</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>504</v>
       </c>
@@ -8123,8 +9201,11 @@
       <c r="D359">
         <v>4.8846580499634999</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E359">
+        <v>-0.61531238565206003</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>505</v>
       </c>
@@ -8137,8 +9218,11 @@
       <c r="D360">
         <v>3.7159457011865995</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E360">
+        <v>-1.00479804066571</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>22</v>
       </c>
@@ -8151,8 +9235,11 @@
       <c r="D361">
         <v>7.166838803602321</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E361">
+        <v>1.4419592225592599</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>506</v>
       </c>
@@ -8165,8 +9252,11 @@
       <c r="D362">
         <v>3.2506364790127495</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E362">
+        <v>0.52362348115811397</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>507</v>
       </c>
@@ -8179,8 +9269,11 @@
       <c r="D363">
         <v>4.8835540072877572</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E363">
+        <v>0.89813860279875901</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>508</v>
       </c>
@@ -8193,8 +9286,11 @@
       <c r="D364">
         <v>4.0912925670036415</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E364">
+        <v>-0.73954785308208904</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>509</v>
       </c>
@@ -8207,8 +9303,11 @@
       <c r="D365">
         <v>4.1626593865310761</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E365">
+        <v>-0.69399938053918198</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>510</v>
       </c>
@@ -8221,8 +9320,11 @@
       <c r="D366">
         <v>3.5667198001065334</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E366">
+        <v>-0.33877143574298202</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>511</v>
       </c>
@@ -8235,8 +9337,11 @@
       <c r="D367">
         <v>3.3510445477902469</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E367">
+        <v>-2.6971942205485702</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>512</v>
       </c>
@@ -8249,8 +9354,11 @@
       <c r="D368">
         <v>3.4593293110425352</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E368">
+        <v>-0.59112117601818104</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>513</v>
       </c>
@@ -8263,8 +9371,11 @@
       <c r="D369">
         <v>4.3576522147901944</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E369">
+        <v>0.95428154013715505</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>514</v>
       </c>
@@ -8277,8 +9388,11 @@
       <c r="D370">
         <v>3.0072871544067672</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E370">
+        <v>-1.4194925897926101</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>515</v>
       </c>
@@ -8291,8 +9405,11 @@
       <c r="D371">
         <v>3.8743254728929832</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E371">
+        <v>1.19473095169027</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>127</v>
       </c>
@@ -8305,8 +9422,11 @@
       <c r="D372">
         <v>5.944228335499707</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E372">
+        <v>-0.706827275802974</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>516</v>
       </c>
@@ -8319,8 +9439,11 @@
       <c r="D373">
         <v>4.2283380751785629</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E373">
+        <v>1.3624802301171699</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>128</v>
       </c>
@@ -8333,8 +9456,11 @@
       <c r="D374">
         <v>5.4028918689245646</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E374">
+        <v>1.1304745418308799</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>517</v>
       </c>
@@ -8347,8 +9473,11 @@
       <c r="D375">
         <v>2.9305676359598292</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E375">
+        <v>0.51729055475914998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>518</v>
       </c>
@@ -8361,8 +9490,11 @@
       <c r="D376">
         <v>4.3760523045093365</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E376">
+        <v>0.94791405763693903</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>519</v>
       </c>
@@ -8375,8 +9507,11 @@
       <c r="D377">
         <v>4.3215983686114239</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E377">
+        <v>0.60825516710092697</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>520</v>
       </c>
@@ -8389,8 +9524,11 @@
       <c r="D378">
         <v>3.1563098881890803</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E378">
+        <v>0.99227153007630897</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>23</v>
       </c>
@@ -8403,8 +9541,11 @@
       <c r="D379">
         <v>6.9708358875088816</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E379">
+        <v>0.71084879174883098</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>24</v>
       </c>
@@ -8417,8 +9558,11 @@
       <c r="D380">
         <v>7.3294525866199223</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E380">
+        <v>0.69317769179625699</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>129</v>
       </c>
@@ -8431,8 +9575,11 @@
       <c r="D381">
         <v>5.5346790665226111</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E381">
+        <v>1.09355993794451</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>521</v>
       </c>
@@ -8445,8 +9592,11 @@
       <c r="D382">
         <v>3.5428290519968235</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E382">
+        <v>0.88865374343543602</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>522</v>
       </c>
@@ -8459,8 +9609,11 @@
       <c r="D383">
         <v>3.3839536338042051</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E383">
+        <v>-1.0840383468282</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>523</v>
       </c>
@@ -8473,8 +9626,11 @@
       <c r="D384">
         <v>3.4551487632049112</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E384">
+        <v>-0.84210105503936405</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>524</v>
       </c>
@@ -8487,8 +9643,11 @@
       <c r="D385">
         <v>3.0022265482658623</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E385">
+        <v>0.86115447956463398</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -8501,8 +9660,11 @@
       <c r="D386">
         <v>8.1386149150739868</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E386">
+        <v>0.66746099115072299</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>525</v>
       </c>
@@ -8515,8 +9677,11 @@
       <c r="D387">
         <v>4.6413884141268031</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E387">
+        <v>0.79274627315910395</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>526</v>
       </c>
@@ -8529,8 +9694,11 @@
       <c r="D388">
         <v>3.1276548458226467</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E388">
+        <v>-0.86532517902425898</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>527</v>
       </c>
@@ -8543,8 +9711,11 @@
       <c r="D389">
         <v>3.939708385762001</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E389">
+        <v>0.73767400487243195</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>528</v>
       </c>
@@ -8557,8 +9728,11 @@
       <c r="D390">
         <v>3.1942779750378025</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E390">
+        <v>0.61442841306027796</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>529</v>
       </c>
@@ -8571,8 +9745,11 @@
       <c r="D391">
         <v>3.995708587818974</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E391">
+        <v>0.73153195306401597</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>530</v>
       </c>
@@ -8585,8 +9762,11 @@
       <c r="D392">
         <v>3.9923799210597877</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E392">
+        <v>-0.58441802307213098</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>531</v>
       </c>
@@ -8599,8 +9779,11 @@
       <c r="D393">
         <v>3.9897357516959149</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E393">
+        <v>2.9359468095279402</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>532</v>
       </c>
@@ -8613,8 +9796,11 @@
       <c r="D394">
         <v>3.2456863651600747</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E394">
+        <v>-0.86101869289139399</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>130</v>
       </c>
@@ -8627,8 +9813,11 @@
       <c r="D395">
         <v>5.7980177602569398</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E395">
+        <v>1.74474786497732</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>533</v>
       </c>
@@ -8641,8 +9830,11 @@
       <c r="D396">
         <v>3.4528092320919432</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E396">
+        <v>-0.94406409486809395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>534</v>
       </c>
@@ -8655,8 +9847,11 @@
       <c r="D397">
         <v>3.4441842711357369</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E397">
+        <v>0.79521347864902403</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>131</v>
       </c>
@@ -8669,8 +9864,11 @@
       <c r="D398">
         <v>5.2605364364879854</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E398">
+        <v>-0.88859959487987195</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>535</v>
       </c>
@@ -8683,8 +9881,11 @@
       <c r="D399">
         <v>3.737404873233003</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E399">
+        <v>-0.97728308696672295</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>536</v>
       </c>
@@ -8697,8 +9898,11 @@
       <c r="D400">
         <v>3.5255603106641176</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E400">
+        <v>-0.82768218128788995</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>25</v>
       </c>
@@ -8711,8 +9915,11 @@
       <c r="D401">
         <v>6.880747272239776</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E401">
+        <v>0.86177137120842395</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>26</v>
       </c>
@@ -8725,8 +9932,11 @@
       <c r="D402">
         <v>6.6001559420324352</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E402">
+        <v>0.71166792536466705</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>537</v>
       </c>
@@ -8739,8 +9949,11 @@
       <c r="D403">
         <v>3.48872639222972</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E403">
+        <v>-0.65563269601719498</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>538</v>
       </c>
@@ -8753,8 +9966,11 @@
       <c r="D404">
         <v>4.722875924775674</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E404">
+        <v>1.33966021217541</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>539</v>
       </c>
@@ -8767,8 +9983,11 @@
       <c r="D405">
         <v>4.8706316955703413</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E405">
+        <v>1.12458262939597</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>540</v>
       </c>
@@ -8781,8 +10000,11 @@
       <c r="D406">
         <v>3.172018744357874</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E406">
+        <v>-0.86492967206564797</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>132</v>
       </c>
@@ -8795,8 +10017,11 @@
       <c r="D407">
         <v>5.3474057840804905</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E407">
+        <v>1.4292363547828499</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>541</v>
       </c>
@@ -8809,8 +10034,11 @@
       <c r="D408">
         <v>3.9476370172073176</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E408">
+        <v>0.55827175452733602</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>133</v>
       </c>
@@ -8823,8 +10051,11 @@
       <c r="D409">
         <v>5.2756307322827158</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E409">
+        <v>-0.69388244065052695</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>134</v>
       </c>
@@ -8837,8 +10068,11 @@
       <c r="D410">
         <v>5.6846554803941158</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E410">
+        <v>0.81069443160068699</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>542</v>
       </c>
@@ -8851,8 +10085,11 @@
       <c r="D411">
         <v>3.7773746306554838</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E411">
+        <v>-0.55298545275603195</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>543</v>
       </c>
@@ -8865,8 +10102,11 @@
       <c r="D412">
         <v>3.8132114788728537</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E412">
+        <v>2.0676415979127198</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>135</v>
       </c>
@@ -8879,8 +10119,11 @@
       <c r="D413">
         <v>5.0363421024078763</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E413">
+        <v>0.59143508683659796</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>544</v>
       </c>
@@ -8893,8 +10136,11 @@
       <c r="D414">
         <v>3.7451108657895151</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E414">
+        <v>-1.0627414650207501</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>545</v>
       </c>
@@ -8907,8 +10153,11 @@
       <c r="D415">
         <v>3.3456294723519102</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E415">
+        <v>0.71707254816313704</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>136</v>
       </c>
@@ -8921,8 +10170,11 @@
       <c r="D416">
         <v>5.4172495859922574</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E416">
+        <v>-0.94795668547807899</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>546</v>
       </c>
@@ -8935,8 +10187,11 @@
       <c r="D417">
         <v>3.1367032873738623</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E417">
+        <v>-0.79447940120407401</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>27</v>
       </c>
@@ -8949,8 +10204,11 @@
       <c r="D418">
         <v>6.9000091581232414</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E418">
+        <v>-0.83879436051357303</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>547</v>
       </c>
@@ -8963,8 +10221,11 @@
       <c r="D419">
         <v>3.0650584356470927</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E419">
+        <v>-0.93396007118665503</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>137</v>
       </c>
@@ -8977,8 +10238,11 @@
       <c r="D420">
         <v>5.6378194476151426</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E420">
+        <v>0.81446305735487801</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>548</v>
       </c>
@@ -8991,8 +10255,11 @@
       <c r="D421">
         <v>3.444421627247833</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E421">
+        <v>-1.2063271316287101</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>138</v>
       </c>
@@ -9005,8 +10272,11 @@
       <c r="D422">
         <v>5.009031544588634</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E422">
+        <v>-0.37249797862311801</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>549</v>
       </c>
@@ -9019,8 +10289,11 @@
       <c r="D423">
         <v>3.4638549704106394</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E423">
+        <v>-0.835653292548589</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>550</v>
       </c>
@@ -9033,8 +10306,11 @@
       <c r="D424">
         <v>3.248897412700023</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E424">
+        <v>0.78232976042081304</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>28</v>
       </c>
@@ -9047,8 +10323,11 @@
       <c r="D425">
         <v>7.7962667044707663</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E425">
+        <v>0.78858214760169698</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>551</v>
       </c>
@@ -9061,8 +10340,11 @@
       <c r="D426">
         <v>3.4753581757305581</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E426">
+        <v>0.80216143040928201</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>552</v>
       </c>
@@ -9075,8 +10357,11 @@
       <c r="D427">
         <v>4.4056749070942587</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E427">
+        <v>-0.77316488853328802</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>553</v>
       </c>
@@ -9089,8 +10374,11 @@
       <c r="D428">
         <v>3.020590681138279</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E428">
+        <v>-1.32768547885562</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>139</v>
       </c>
@@ -9103,8 +10391,11 @@
       <c r="D429">
         <v>5.3914502801846824</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E429">
+        <v>0.77827837731613303</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>140</v>
       </c>
@@ -9117,8 +10408,11 @@
       <c r="D430">
         <v>6.0170128615274336</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E430">
+        <v>0.88437098570417805</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>554</v>
       </c>
@@ -9131,8 +10425,11 @@
       <c r="D431">
         <v>3.5340188477171894</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E431">
+        <v>-0.91473796047373701</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>141</v>
       </c>
@@ -9145,8 +10442,11 @@
       <c r="D432">
         <v>5.8573778968584413</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E432">
+        <v>-0.76066783767540802</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>555</v>
       </c>
@@ -9159,8 +10459,11 @@
       <c r="D433">
         <v>3.5350629451389137</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E433">
+        <v>-0.60331366524607</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>556</v>
       </c>
@@ -9173,8 +10476,11 @@
       <c r="D434">
         <v>3.9543414782503294</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E434">
+        <v>1.2771862419023301</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>142</v>
       </c>
@@ -9187,8 +10493,11 @@
       <c r="D435">
         <v>5.8952608764511387</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E435">
+        <v>-0.77326745386935003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>557</v>
       </c>
@@ -9201,8 +10510,11 @@
       <c r="D436">
         <v>3.2844436582361198</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E436">
+        <v>-0.73692808827584</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>558</v>
       </c>
@@ -9215,8 +10527,11 @@
       <c r="D437">
         <v>2.9734393957190908</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E437">
+        <v>-0.65598567478428205</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>559</v>
       </c>
@@ -9229,8 +10544,11 @@
       <c r="D438">
         <v>3.1081602153505954</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E438">
+        <v>-0.62367965888059396</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>143</v>
       </c>
@@ -9243,8 +10561,11 @@
       <c r="D439">
         <v>5.6805982922284795</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E439">
+        <v>0.33033352707613001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>560</v>
       </c>
@@ -9257,8 +10578,11 @@
       <c r="D440">
         <v>3.7792372798678535</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E440">
+        <v>-0.95664521898502597</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>561</v>
       </c>
@@ -9271,8 +10595,11 @@
       <c r="D441">
         <v>4.2941954008700396</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E441">
+        <v>1.29981723461288</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>562</v>
       </c>
@@ -9285,8 +10612,11 @@
       <c r="D442">
         <v>3.5352044327454255</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E442">
+        <v>1.38956519131191</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>563</v>
       </c>
@@ -9299,8 +10629,11 @@
       <c r="D443">
         <v>2.9765564721319882</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E443">
+        <v>-0.95990112534521199</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>564</v>
       </c>
@@ -9313,8 +10646,11 @@
       <c r="D444">
         <v>3.8073189688474933</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E444">
+        <v>-0.95723052412211396</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>565</v>
       </c>
@@ -9327,8 +10663,11 @@
       <c r="D445">
         <v>3.1994395470289692</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E445">
+        <v>0.67762787757724197</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>566</v>
       </c>
@@ -9341,8 +10680,11 @@
       <c r="D446">
         <v>2.8922034649662236</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E446">
+        <v>0.54643933796896904</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>567</v>
       </c>
@@ -9355,8 +10697,11 @@
       <c r="D447">
         <v>4.8019472369609248</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E447">
+        <v>0.44710829078944597</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>29</v>
       </c>
@@ -9369,8 +10714,11 @@
       <c r="D448">
         <v>7.2975697946231666</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E448">
+        <v>1.01172129942529</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>568</v>
       </c>
@@ -9383,8 +10731,11 @@
       <c r="D449">
         <v>3.6194062752688994</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E449">
+        <v>-0.42782344453611798</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>144</v>
       </c>
@@ -9397,8 +10748,11 @@
       <c r="D450">
         <v>5.244077781442563</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E450">
+        <v>0.95038761389634796</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>569</v>
       </c>
@@ -9411,8 +10765,11 @@
       <c r="D451">
         <v>3.1725835734889274</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E451">
+        <v>-0.45180626837155102</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>145</v>
       </c>
@@ -9425,8 +10782,11 @@
       <c r="D452">
         <v>6.153482480658762</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E452">
+        <v>1.0692716276498599</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>570</v>
       </c>
@@ -9438,6 +10798,9 @@
       </c>
       <c r="D453">
         <v>4.4759745532372337</v>
+      </c>
+      <c r="E453">
+        <v>1.4274534989177201</v>
       </c>
     </row>
   </sheetData>

--- a/RNAseq/Data/PC2genestatsWT.xlsx
+++ b/RNAseq/Data/PC2genestatsWT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilbar\Documents\MATLAB\DreammistPaper\RNAseq\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B31D84EF-5ED3-4674-B8EB-09BC1BB7E5A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{725C1793-8260-4D39-9730-C9C13C9DB5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12610" windowHeight="7430" xr2:uid="{937D1CE9-690B-4661-8ACC-68EA47A9A284}"/>
   </bookViews>
